--- a/doc/07.試験項目表.xlsx
+++ b/doc/07.試験項目表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r_yokoyama\Desktop\AttendanceManagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBD4366-400C-4939-AA52-C07CCC3CE276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19BC4D8-7DB0-4409-84D9-3FF3D7B2FE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{41F28AE0-7881-47A3-8751-60557CFE640E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="331">
   <si>
     <t>＃</t>
   </si>
@@ -4472,6 +4472,84 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録機能</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面とタイトルが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・DBに登録される
+・登録した社員の詳細画面に遷移する
+・社員一覧の最終行に追記される</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>サイシュウギョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ツイキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4866,7 +4944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D1FE6F-FDB4-4A4A-BFE1-D826FD76EEF2}">
   <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A137" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C86" sqref="C86:H146"/>
     </sheetView>
   </sheetViews>
@@ -7619,10 +7697,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1BB0ED-FED9-4C5B-8970-B3EAB93CD5A2}">
-  <dimension ref="A1:M161"/>
+  <dimension ref="A1:M172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F156" sqref="F156"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G172" sqref="G172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10467,6 +10545,205 @@
         <v>19</v>
       </c>
     </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B162" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A163">
+        <v>158</v>
+      </c>
+      <c r="C163" t="s">
+        <v>328</v>
+      </c>
+      <c r="D163" t="s">
+        <v>301</v>
+      </c>
+      <c r="F163" t="s">
+        <v>111</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H163" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A164">
+        <v>159</v>
+      </c>
+      <c r="D164" t="s">
+        <v>239</v>
+      </c>
+      <c r="E164" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" t="s">
+        <v>266</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H164" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A165">
+        <v>160</v>
+      </c>
+      <c r="D165" t="s">
+        <v>239</v>
+      </c>
+      <c r="E165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s">
+        <v>272</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H165" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A166">
+        <v>161</v>
+      </c>
+      <c r="D166" t="s">
+        <v>239</v>
+      </c>
+      <c r="E166" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
+        <v>267</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H166" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A167">
+        <v>162</v>
+      </c>
+      <c r="D167" t="s">
+        <v>239</v>
+      </c>
+      <c r="E167" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s">
+        <v>270</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H167" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A168">
+        <v>163</v>
+      </c>
+      <c r="D168" t="s">
+        <v>239</v>
+      </c>
+      <c r="E168" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" t="s">
+        <v>274</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H168" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A169">
+        <v>164</v>
+      </c>
+      <c r="D169" t="s">
+        <v>239</v>
+      </c>
+      <c r="E169" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" t="s">
+        <v>276</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H169" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A170">
+        <v>165</v>
+      </c>
+      <c r="D170" t="s">
+        <v>20</v>
+      </c>
+      <c r="F170" t="s">
+        <v>21</v>
+      </c>
+      <c r="G170" t="s">
+        <v>22</v>
+      </c>
+      <c r="H170" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A171">
+        <v>166</v>
+      </c>
+      <c r="D171" t="s">
+        <v>51</v>
+      </c>
+      <c r="E171" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H171" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A172">
+        <v>167</v>
+      </c>
+      <c r="D172" t="s">
+        <v>83</v>
+      </c>
+      <c r="F172" t="s">
+        <v>84</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H172" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/07.試験項目表.xlsx
+++ b/doc/07.試験項目表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r_yokoyama\Desktop\AttendanceManagement\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laravel\AttendanceManagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19BC4D8-7DB0-4409-84D9-3FF3D7B2FE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10416AF9-9EBD-4C7A-8D84-C44EED1AB0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{41F28AE0-7881-47A3-8751-60557CFE640E}"/>
+    <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{41F28AE0-7881-47A3-8751-60557CFE640E}"/>
   </bookViews>
   <sheets>
     <sheet name="出退勤画面" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="347">
   <si>
     <t>＃</t>
   </si>
@@ -4550,6 +4550,301 @@
     </rPh>
     <rPh sb="38" eb="40">
       <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理画面機能</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理画面</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理画面とタイトルが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始業時間</t>
+    <rPh sb="0" eb="2">
+      <t>シギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終業時間</t>
+    <rPh sb="0" eb="2">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更ボタンをクリック（終業時間を始業時間より早い時間を指定）</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シギョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更ボタンをクリック（始業時間と終業時間を変更）</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・変更しましたとMSGが表示
+・時短社員以外の就業時間も変わる（詳細画面で確認）</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジタン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更ボタンをクリック（始業時間と終業時間は変更しない）</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・変更しましたとMSGが表示
+・時短社員以外の就業時間は変わらない（詳細画面で確認）</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジタン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理画面</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナビゲーションバー（管理限有の場合）</t>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・管理画面とメニューが表示
+・クリックで開くことができる</t>
+    <rPh sb="1" eb="3">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナビゲーションバー（管理権限無しの場合）</t>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・管理画面とメニューが非表示</t>
+    <rPh sb="1" eb="3">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理権限無しの場合で管理画面のURLを入力したとき</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4944,25 +5239,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D1FE6F-FDB4-4A4A-BFE1-D826FD76EEF2}">
   <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86:H146"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48" customWidth="1"/>
-    <col min="7" max="7" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5003,12 +5298,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5027,8 +5322,14 @@
       <c r="H3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5047,8 +5348,14 @@
       <c r="H4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5067,8 +5374,14 @@
       <c r="H5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5084,8 +5397,14 @@
       <c r="H6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5101,13 +5420,19 @@
       <c r="H7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5126,13 +5451,19 @@
       <c r="H9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>7</v>
       </c>
@@ -5151,8 +5482,14 @@
       <c r="H11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>8</v>
       </c>
@@ -5168,8 +5505,14 @@
       <c r="H12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>9</v>
       </c>
@@ -5185,8 +5528,14 @@
       <c r="H13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>10</v>
       </c>
@@ -5202,8 +5551,14 @@
       <c r="H14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>11</v>
       </c>
@@ -5219,8 +5574,14 @@
       <c r="H15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>12</v>
       </c>
@@ -5236,13 +5597,19 @@
       <c r="H16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>13</v>
       </c>
@@ -5261,8 +5628,14 @@
       <c r="H18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>14</v>
       </c>
@@ -5278,8 +5651,14 @@
       <c r="H19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>15</v>
       </c>
@@ -5295,8 +5674,14 @@
       <c r="H20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>16</v>
       </c>
@@ -5312,8 +5697,14 @@
       <c r="H21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>17</v>
       </c>
@@ -5329,8 +5720,14 @@
       <c r="H22" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>18</v>
       </c>
@@ -5346,8 +5743,14 @@
       <c r="H23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>19</v>
       </c>
@@ -5363,8 +5766,14 @@
       <c r="H24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>20</v>
       </c>
@@ -5380,8 +5789,14 @@
       <c r="H25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>21</v>
       </c>
@@ -5397,8 +5812,14 @@
       <c r="H26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>22</v>
       </c>
@@ -5414,8 +5835,14 @@
       <c r="H27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>23</v>
       </c>
@@ -5434,13 +5861,19 @@
       <c r="H28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>24</v>
       </c>
@@ -5459,8 +5892,14 @@
       <c r="H30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>25</v>
       </c>
@@ -5476,8 +5915,14 @@
       <c r="H31" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>26</v>
       </c>
@@ -5493,8 +5938,14 @@
       <c r="H32" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>27</v>
       </c>
@@ -5510,8 +5961,14 @@
       <c r="H33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>28</v>
       </c>
@@ -5527,8 +5984,14 @@
       <c r="H34" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>29</v>
       </c>
@@ -5544,8 +6007,14 @@
       <c r="H35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>30</v>
       </c>
@@ -5561,8 +6030,14 @@
       <c r="H36" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>31</v>
       </c>
@@ -5578,8 +6053,14 @@
       <c r="H37" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>32</v>
       </c>
@@ -5595,8 +6076,14 @@
       <c r="H38" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>33</v>
       </c>
@@ -5612,8 +6099,14 @@
       <c r="H39" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>34</v>
       </c>
@@ -5629,8 +6122,14 @@
       <c r="H40" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>35</v>
       </c>
@@ -5649,8 +6148,14 @@
       <c r="H41" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>36</v>
       </c>
@@ -5669,8 +6174,14 @@
       <c r="H42" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>37</v>
       </c>
@@ -5689,8 +6200,14 @@
       <c r="H43" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>38</v>
       </c>
@@ -5709,8 +6226,14 @@
       <c r="H44" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>39</v>
       </c>
@@ -5726,8 +6249,14 @@
       <c r="H45" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>40</v>
       </c>
@@ -5743,8 +6272,14 @@
       <c r="H46" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>41</v>
       </c>
@@ -5760,8 +6295,14 @@
       <c r="H47" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I47" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>42</v>
       </c>
@@ -5777,8 +6318,14 @@
       <c r="H48" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>43</v>
       </c>
@@ -5794,8 +6341,14 @@
       <c r="H49" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>44</v>
       </c>
@@ -5811,8 +6364,14 @@
       <c r="H50" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I50" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>45</v>
       </c>
@@ -5828,8 +6387,14 @@
       <c r="H51" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>46</v>
       </c>
@@ -5845,8 +6410,14 @@
       <c r="H52" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I52" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>47</v>
       </c>
@@ -5862,8 +6433,14 @@
       <c r="H53" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I53" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>48</v>
       </c>
@@ -5879,8 +6456,14 @@
       <c r="H54" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I54" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>49</v>
       </c>
@@ -5896,8 +6479,14 @@
       <c r="H55" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I55" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>50</v>
       </c>
@@ -5913,8 +6502,14 @@
       <c r="H56" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I56" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>51</v>
       </c>
@@ -5930,8 +6525,14 @@
       <c r="H57" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>52</v>
       </c>
@@ -5947,8 +6548,14 @@
       <c r="H58" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I58" t="s">
+        <v>32</v>
+      </c>
+      <c r="J58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>53</v>
       </c>
@@ -5964,13 +6571,19 @@
       <c r="H59" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I59" t="s">
+        <v>32</v>
+      </c>
+      <c r="J59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C61" t="s">
         <v>131</v>
       </c>
@@ -5986,8 +6599,14 @@
       <c r="H61" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I61" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>54</v>
       </c>
@@ -6003,8 +6622,14 @@
       <c r="H62" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I62" t="s">
+        <v>32</v>
+      </c>
+      <c r="J62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>55</v>
       </c>
@@ -6020,8 +6645,14 @@
       <c r="H63" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I63" t="s">
+        <v>32</v>
+      </c>
+      <c r="J63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>56</v>
       </c>
@@ -6037,8 +6668,14 @@
       <c r="H64" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I64" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>57</v>
       </c>
@@ -6054,8 +6691,14 @@
       <c r="H65" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I65" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>58</v>
       </c>
@@ -6071,8 +6714,14 @@
       <c r="H66" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I66" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>59</v>
       </c>
@@ -6088,8 +6737,14 @@
       <c r="H67" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>60</v>
       </c>
@@ -6108,8 +6763,14 @@
       <c r="H68" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I68" t="s">
+        <v>32</v>
+      </c>
+      <c r="J68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>61</v>
       </c>
@@ -6128,8 +6789,14 @@
       <c r="H69" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I69" t="s">
+        <v>32</v>
+      </c>
+      <c r="J69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>62</v>
       </c>
@@ -6148,8 +6815,14 @@
       <c r="H70" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I70" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>63</v>
       </c>
@@ -6168,8 +6841,14 @@
       <c r="H71" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I71" t="s">
+        <v>32</v>
+      </c>
+      <c r="J71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>64</v>
       </c>
@@ -6185,8 +6864,14 @@
       <c r="H72" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I72" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>65</v>
       </c>
@@ -6202,13 +6887,19 @@
       <c r="H73" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I73" t="s">
+        <v>19</v>
+      </c>
+      <c r="J73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>66</v>
       </c>
@@ -6227,8 +6918,14 @@
       <c r="H75" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I75" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>67</v>
       </c>
@@ -6244,8 +6941,14 @@
       <c r="H76" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I76" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>68</v>
       </c>
@@ -6264,8 +6967,14 @@
       <c r="H77" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I77" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>69</v>
       </c>
@@ -6281,8 +6990,14 @@
       <c r="H78" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I78" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>70</v>
       </c>
@@ -6298,8 +7013,14 @@
       <c r="H79" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I79" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>71</v>
       </c>
@@ -6315,8 +7036,14 @@
       <c r="H80" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I80" t="s">
+        <v>32</v>
+      </c>
+      <c r="J80" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>72</v>
       </c>
@@ -6332,8 +7059,14 @@
       <c r="H81" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I81" t="s">
+        <v>32</v>
+      </c>
+      <c r="J81" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>73</v>
       </c>
@@ -6349,8 +7082,14 @@
       <c r="H82" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I82" t="s">
+        <v>32</v>
+      </c>
+      <c r="J82" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>74</v>
       </c>
@@ -6366,8 +7105,14 @@
       <c r="H83" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I83" t="s">
+        <v>32</v>
+      </c>
+      <c r="J83" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>75</v>
       </c>
@@ -6383,8 +7128,14 @@
       <c r="H84" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I84" t="s">
+        <v>32</v>
+      </c>
+      <c r="J84" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>76</v>
       </c>
@@ -6400,8 +7151,14 @@
       <c r="H85" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I85" t="s">
+        <v>32</v>
+      </c>
+      <c r="J85" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>77</v>
       </c>
@@ -6420,8 +7177,14 @@
       <c r="H86" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I86" t="s">
+        <v>32</v>
+      </c>
+      <c r="J86" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>78</v>
       </c>
@@ -6437,8 +7200,14 @@
       <c r="H87" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I87" t="s">
+        <v>19</v>
+      </c>
+      <c r="J87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>79</v>
       </c>
@@ -6454,8 +7223,14 @@
       <c r="H88" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I88" t="s">
+        <v>19</v>
+      </c>
+      <c r="J88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>80</v>
       </c>
@@ -6471,8 +7246,14 @@
       <c r="H89" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I89" t="s">
+        <v>32</v>
+      </c>
+      <c r="J89" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>81</v>
       </c>
@@ -6488,8 +7269,14 @@
       <c r="H90" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I90" t="s">
+        <v>19</v>
+      </c>
+      <c r="J90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>82</v>
       </c>
@@ -6505,8 +7292,14 @@
       <c r="H91" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I91" t="s">
+        <v>32</v>
+      </c>
+      <c r="J91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>83</v>
       </c>
@@ -6522,8 +7315,14 @@
       <c r="H92" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>84</v>
       </c>
@@ -6539,8 +7338,14 @@
       <c r="H93" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I93" t="s">
+        <v>32</v>
+      </c>
+      <c r="J93" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>85</v>
       </c>
@@ -6556,8 +7361,14 @@
       <c r="H94" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I94" t="s">
+        <v>32</v>
+      </c>
+      <c r="J94" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>86</v>
       </c>
@@ -6573,8 +7384,14 @@
       <c r="H95" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I95" t="s">
+        <v>19</v>
+      </c>
+      <c r="J95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>87</v>
       </c>
@@ -6590,8 +7407,14 @@
       <c r="H96" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I96" t="s">
+        <v>32</v>
+      </c>
+      <c r="J96" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>88</v>
       </c>
@@ -6610,8 +7433,14 @@
       <c r="H97" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I97" t="s">
+        <v>32</v>
+      </c>
+      <c r="J97" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>89</v>
       </c>
@@ -6630,8 +7459,14 @@
       <c r="H98" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I98" t="s">
+        <v>32</v>
+      </c>
+      <c r="J98" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>90</v>
       </c>
@@ -6650,8 +7485,14 @@
       <c r="H99" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I99" t="s">
+        <v>19</v>
+      </c>
+      <c r="J99" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>91</v>
       </c>
@@ -6670,8 +7511,14 @@
       <c r="H100" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I100" t="s">
+        <v>32</v>
+      </c>
+      <c r="J100" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>92</v>
       </c>
@@ -6687,8 +7534,14 @@
       <c r="H101" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I101" t="s">
+        <v>32</v>
+      </c>
+      <c r="J101" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>93</v>
       </c>
@@ -6704,8 +7557,14 @@
       <c r="H102" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I102" t="s">
+        <v>32</v>
+      </c>
+      <c r="J102" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>94</v>
       </c>
@@ -6721,8 +7580,14 @@
       <c r="H103" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I103" t="s">
+        <v>32</v>
+      </c>
+      <c r="J103" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>95</v>
       </c>
@@ -6738,8 +7603,14 @@
       <c r="H104" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I104" t="s">
+        <v>32</v>
+      </c>
+      <c r="J104" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>96</v>
       </c>
@@ -6755,8 +7626,14 @@
       <c r="H105" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I105" t="s">
+        <v>32</v>
+      </c>
+      <c r="J105" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>97</v>
       </c>
@@ -6772,8 +7649,14 @@
       <c r="H106" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I106" t="s">
+        <v>32</v>
+      </c>
+      <c r="J106" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>98</v>
       </c>
@@ -6789,8 +7672,14 @@
       <c r="H107" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I107" t="s">
+        <v>32</v>
+      </c>
+      <c r="J107" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>99</v>
       </c>
@@ -6806,8 +7695,14 @@
       <c r="H108" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I108" t="s">
+        <v>32</v>
+      </c>
+      <c r="J108" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>100</v>
       </c>
@@ -6823,8 +7718,14 @@
       <c r="H109" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I109" t="s">
+        <v>32</v>
+      </c>
+      <c r="J109" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>101</v>
       </c>
@@ -6840,8 +7741,14 @@
       <c r="H110" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I110" t="s">
+        <v>32</v>
+      </c>
+      <c r="J110" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>102</v>
       </c>
@@ -6857,8 +7764,14 @@
       <c r="H111" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I111" t="s">
+        <v>32</v>
+      </c>
+      <c r="J111" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>103</v>
       </c>
@@ -6874,8 +7787,14 @@
       <c r="H112" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I112" t="s">
+        <v>32</v>
+      </c>
+      <c r="J112" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>104</v>
       </c>
@@ -6891,8 +7810,14 @@
       <c r="H113" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I113" t="s">
+        <v>32</v>
+      </c>
+      <c r="J113" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>105</v>
       </c>
@@ -6908,8 +7833,14 @@
       <c r="H114" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I114" t="s">
+        <v>32</v>
+      </c>
+      <c r="J114" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>106</v>
       </c>
@@ -6925,8 +7856,14 @@
       <c r="H115" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I115" t="s">
+        <v>32</v>
+      </c>
+      <c r="J115" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>107</v>
       </c>
@@ -6942,8 +7879,14 @@
       <c r="H116" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I116" t="s">
+        <v>32</v>
+      </c>
+      <c r="J116" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>108</v>
       </c>
@@ -6962,8 +7905,14 @@
       <c r="H117" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I117" t="s">
+        <v>32</v>
+      </c>
+      <c r="J117" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>109</v>
       </c>
@@ -6982,8 +7931,14 @@
       <c r="H118" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I118" t="s">
+        <v>32</v>
+      </c>
+      <c r="J118" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>110</v>
       </c>
@@ -7002,8 +7957,14 @@
       <c r="H119" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I119" t="s">
+        <v>32</v>
+      </c>
+      <c r="J119" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>111</v>
       </c>
@@ -7022,8 +7983,14 @@
       <c r="H120" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I120" t="s">
+        <v>32</v>
+      </c>
+      <c r="J120" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>112</v>
       </c>
@@ -7039,8 +8006,14 @@
       <c r="H121" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I121" t="s">
+        <v>32</v>
+      </c>
+      <c r="J121" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>113</v>
       </c>
@@ -7056,8 +8029,14 @@
       <c r="H122" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I122" t="s">
+        <v>32</v>
+      </c>
+      <c r="J122" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>114</v>
       </c>
@@ -7073,8 +8052,14 @@
       <c r="H123" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I123" t="s">
+        <v>32</v>
+      </c>
+      <c r="J123" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>115</v>
       </c>
@@ -7093,8 +8078,14 @@
       <c r="H124" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I124" t="s">
+        <v>32</v>
+      </c>
+      <c r="J124" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>116</v>
       </c>
@@ -7110,8 +8101,14 @@
       <c r="H125" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I125" t="s">
+        <v>32</v>
+      </c>
+      <c r="J125" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>117</v>
       </c>
@@ -7127,8 +8124,14 @@
       <c r="H126" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I126" t="s">
+        <v>32</v>
+      </c>
+      <c r="J126" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>118</v>
       </c>
@@ -7144,8 +8147,14 @@
       <c r="H127" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I127" t="s">
+        <v>32</v>
+      </c>
+      <c r="J127" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>119</v>
       </c>
@@ -7161,8 +8170,14 @@
       <c r="H128" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I128" t="s">
+        <v>32</v>
+      </c>
+      <c r="J128" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>120</v>
       </c>
@@ -7178,8 +8193,14 @@
       <c r="H129" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I129" t="s">
+        <v>19</v>
+      </c>
+      <c r="J129" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>121</v>
       </c>
@@ -7195,8 +8216,14 @@
       <c r="H130" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I130" t="s">
+        <v>32</v>
+      </c>
+      <c r="J130" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>122</v>
       </c>
@@ -7215,8 +8242,14 @@
       <c r="H131" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I131" t="s">
+        <v>32</v>
+      </c>
+      <c r="J131" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>123</v>
       </c>
@@ -7235,8 +8268,14 @@
       <c r="H132" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I132" t="s">
+        <v>32</v>
+      </c>
+      <c r="J132" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>124</v>
       </c>
@@ -7255,8 +8294,14 @@
       <c r="H133" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I133" t="s">
+        <v>19</v>
+      </c>
+      <c r="J133" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>125</v>
       </c>
@@ -7275,8 +8320,14 @@
       <c r="H134" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I134" t="s">
+        <v>32</v>
+      </c>
+      <c r="J134" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>126</v>
       </c>
@@ -7292,8 +8343,14 @@
       <c r="H135" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I135" t="s">
+        <v>32</v>
+      </c>
+      <c r="J135" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>127</v>
       </c>
@@ -7309,8 +8366,14 @@
       <c r="H136" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I136" t="s">
+        <v>19</v>
+      </c>
+      <c r="J136" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>128</v>
       </c>
@@ -7329,8 +8392,14 @@
       <c r="H137" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I137" t="s">
+        <v>32</v>
+      </c>
+      <c r="J137" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>129</v>
       </c>
@@ -7346,8 +8415,14 @@
       <c r="H138" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I138" t="s">
+        <v>19</v>
+      </c>
+      <c r="J138" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>130</v>
       </c>
@@ -7363,8 +8438,14 @@
       <c r="H139" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I139" t="s">
+        <v>32</v>
+      </c>
+      <c r="J139" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>131</v>
       </c>
@@ -7380,8 +8461,14 @@
       <c r="H140" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" ht="75" x14ac:dyDescent="0.4">
+      <c r="I140" t="s">
+        <v>19</v>
+      </c>
+      <c r="J140" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>132</v>
       </c>
@@ -7397,8 +8484,14 @@
       <c r="H141" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I141" t="s">
+        <v>32</v>
+      </c>
+      <c r="J141" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>133</v>
       </c>
@@ -7417,8 +8510,14 @@
       <c r="H142" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I142" t="s">
+        <v>32</v>
+      </c>
+      <c r="J142" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>134</v>
       </c>
@@ -7437,8 +8536,14 @@
       <c r="H143" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I143" t="s">
+        <v>32</v>
+      </c>
+      <c r="J143" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>135</v>
       </c>
@@ -7457,8 +8562,14 @@
       <c r="H144" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I144" t="s">
+        <v>32</v>
+      </c>
+      <c r="J144" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>136</v>
       </c>
@@ -7477,8 +8588,14 @@
       <c r="H145" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I145" t="s">
+        <v>32</v>
+      </c>
+      <c r="J145" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>137</v>
       </c>
@@ -7494,13 +8611,19 @@
       <c r="H146" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I146" t="s">
+        <v>19</v>
+      </c>
+      <c r="J146" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B147" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>138</v>
       </c>
@@ -7519,8 +8642,14 @@
       <c r="H148" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I148" t="s">
+        <v>32</v>
+      </c>
+      <c r="J148" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>139</v>
       </c>
@@ -7536,8 +8665,14 @@
       <c r="H149" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I149" t="s">
+        <v>32</v>
+      </c>
+      <c r="J149" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>140</v>
       </c>
@@ -7553,8 +8688,14 @@
       <c r="H150" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" ht="75" x14ac:dyDescent="0.4">
+      <c r="I150" t="s">
+        <v>19</v>
+      </c>
+      <c r="J150" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>141</v>
       </c>
@@ -7570,8 +8711,14 @@
       <c r="H151" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I151" t="s">
+        <v>32</v>
+      </c>
+      <c r="J151" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>142</v>
       </c>
@@ -7590,8 +8737,14 @@
       <c r="H152" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I152" t="s">
+        <v>32</v>
+      </c>
+      <c r="J152" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>143</v>
       </c>
@@ -7610,8 +8763,14 @@
       <c r="H153" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I153" t="s">
+        <v>32</v>
+      </c>
+      <c r="J153" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>144</v>
       </c>
@@ -7630,8 +8789,14 @@
       <c r="H154" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I154" t="s">
+        <v>32</v>
+      </c>
+      <c r="J154" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>145</v>
       </c>
@@ -7650,8 +8815,14 @@
       <c r="H155" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I155" t="s">
+        <v>32</v>
+      </c>
+      <c r="J155" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>146</v>
       </c>
@@ -7670,8 +8841,14 @@
       <c r="H156" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I156" t="s">
+        <v>32</v>
+      </c>
+      <c r="J156" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>147</v>
       </c>
@@ -7685,6 +8862,12 @@
         <v>85</v>
       </c>
       <c r="H157" t="s">
+        <v>19</v>
+      </c>
+      <c r="I157" t="s">
+        <v>19</v>
+      </c>
+      <c r="J157" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7697,28 +8880,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1BB0ED-FED9-4C5B-8970-B3EAB93CD5A2}">
-  <dimension ref="A1:M172"/>
+  <dimension ref="A1:M195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G172" sqref="G172"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:J195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48" customWidth="1"/>
-    <col min="7" max="7" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.08203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7759,12 +8941,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7783,8 +8965,14 @@
       <c r="H3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7800,8 +8988,14 @@
       <c r="H4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7817,8 +9011,14 @@
       <c r="H5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7834,8 +9034,14 @@
       <c r="H6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7851,13 +9057,19 @@
       <c r="H7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>6</v>
       </c>
@@ -7876,13 +9088,19 @@
       <c r="H9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>7</v>
       </c>
@@ -7901,8 +9119,14 @@
       <c r="H11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>8</v>
       </c>
@@ -7918,8 +9142,14 @@
       <c r="H12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>9</v>
       </c>
@@ -7935,8 +9165,14 @@
       <c r="H13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>10</v>
       </c>
@@ -7952,8 +9188,14 @@
       <c r="H14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>11</v>
       </c>
@@ -7969,8 +9211,14 @@
       <c r="H15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>12</v>
       </c>
@@ -7986,8 +9234,14 @@
       <c r="H16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>13</v>
       </c>
@@ -8003,8 +9257,14 @@
       <c r="H17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>14</v>
       </c>
@@ -8020,8 +9280,14 @@
       <c r="H18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>15</v>
       </c>
@@ -8037,8 +9303,14 @@
       <c r="H19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>16</v>
       </c>
@@ -8054,8 +9326,14 @@
       <c r="H20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>17</v>
       </c>
@@ -8071,8 +9349,14 @@
       <c r="H21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>18</v>
       </c>
@@ -8088,8 +9372,14 @@
       <c r="H22" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>19</v>
       </c>
@@ -8105,8 +9395,14 @@
       <c r="H23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>20</v>
       </c>
@@ -8122,8 +9418,14 @@
       <c r="H24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>21</v>
       </c>
@@ -8142,8 +9444,14 @@
       <c r="H25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>22</v>
       </c>
@@ -8159,8 +9467,14 @@
       <c r="H26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>23</v>
       </c>
@@ -8176,8 +9490,14 @@
       <c r="H27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>24</v>
       </c>
@@ -8193,8 +9513,14 @@
       <c r="H28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>25</v>
       </c>
@@ -8210,8 +9536,14 @@
       <c r="H29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>26</v>
       </c>
@@ -8227,8 +9559,14 @@
       <c r="H30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>27</v>
       </c>
@@ -8244,8 +9582,14 @@
       <c r="H31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>28</v>
       </c>
@@ -8261,8 +9605,14 @@
       <c r="H32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>29</v>
       </c>
@@ -8278,8 +9628,14 @@
       <c r="H33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>30</v>
       </c>
@@ -8295,8 +9651,14 @@
       <c r="H34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>31</v>
       </c>
@@ -8312,8 +9674,14 @@
       <c r="H35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>32</v>
       </c>
@@ -8329,8 +9697,14 @@
       <c r="H36" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>33</v>
       </c>
@@ -8346,8 +9720,14 @@
       <c r="H37" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>34</v>
       </c>
@@ -8366,8 +9746,14 @@
       <c r="H38" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>35</v>
       </c>
@@ -8383,8 +9769,14 @@
       <c r="H39" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>36</v>
       </c>
@@ -8400,8 +9792,14 @@
       <c r="H40" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>37</v>
       </c>
@@ -8417,8 +9815,14 @@
       <c r="H41" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>38</v>
       </c>
@@ -8434,8 +9838,14 @@
       <c r="H42" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>39</v>
       </c>
@@ -8451,8 +9861,14 @@
       <c r="H43" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>40</v>
       </c>
@@ -8468,8 +9884,14 @@
       <c r="H44" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>41</v>
       </c>
@@ -8485,8 +9907,14 @@
       <c r="H45" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>42</v>
       </c>
@@ -8502,8 +9930,14 @@
       <c r="H46" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>43</v>
       </c>
@@ -8519,8 +9953,14 @@
       <c r="H47" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I47" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>44</v>
       </c>
@@ -8536,8 +9976,14 @@
       <c r="H48" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>45</v>
       </c>
@@ -8556,8 +10002,14 @@
       <c r="H49" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>46</v>
       </c>
@@ -8573,8 +10025,14 @@
       <c r="H50" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I50" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>47</v>
       </c>
@@ -8590,8 +10048,14 @@
       <c r="H51" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>48</v>
       </c>
@@ -8607,8 +10071,14 @@
       <c r="H52" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I52" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>49</v>
       </c>
@@ -8624,8 +10094,14 @@
       <c r="H53" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="75" x14ac:dyDescent="0.4">
+      <c r="I53" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>50</v>
       </c>
@@ -8641,8 +10117,14 @@
       <c r="H54" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I54" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>51</v>
       </c>
@@ -8658,8 +10140,14 @@
       <c r="H55" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I55" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>52</v>
       </c>
@@ -8675,8 +10163,14 @@
       <c r="H56" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I56" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>53</v>
       </c>
@@ -8692,8 +10186,14 @@
       <c r="H57" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>54</v>
       </c>
@@ -8709,8 +10209,14 @@
       <c r="H58" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I58" t="s">
+        <v>32</v>
+      </c>
+      <c r="J58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>55</v>
       </c>
@@ -8726,8 +10232,14 @@
       <c r="H59" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I59" t="s">
+        <v>32</v>
+      </c>
+      <c r="J59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>56</v>
       </c>
@@ -8743,8 +10255,14 @@
       <c r="H60" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I60" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>57</v>
       </c>
@@ -8760,8 +10278,14 @@
       <c r="H61" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I61" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>58</v>
       </c>
@@ -8777,8 +10301,14 @@
       <c r="H62" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I62" t="s">
+        <v>32</v>
+      </c>
+      <c r="J62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>59</v>
       </c>
@@ -8794,8 +10324,14 @@
       <c r="H63" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="75" x14ac:dyDescent="0.4">
+      <c r="I63" t="s">
+        <v>32</v>
+      </c>
+      <c r="J63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>60</v>
       </c>
@@ -8811,8 +10347,14 @@
       <c r="H64" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I64" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>61</v>
       </c>
@@ -8831,8 +10373,14 @@
       <c r="H65" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I65" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>62</v>
       </c>
@@ -8851,8 +10399,14 @@
       <c r="H66" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I66" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>63</v>
       </c>
@@ -8871,8 +10425,14 @@
       <c r="H67" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>64</v>
       </c>
@@ -8891,8 +10451,14 @@
       <c r="H68" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I68" t="s">
+        <v>32</v>
+      </c>
+      <c r="J68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>65</v>
       </c>
@@ -8911,8 +10477,14 @@
       <c r="H69" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I69" t="s">
+        <v>32</v>
+      </c>
+      <c r="J69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>66</v>
       </c>
@@ -8931,8 +10503,14 @@
       <c r="H70" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I70" t="s">
+        <v>32</v>
+      </c>
+      <c r="J70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>67</v>
       </c>
@@ -8951,8 +10529,14 @@
       <c r="H71" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I71" t="s">
+        <v>32</v>
+      </c>
+      <c r="J71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>68</v>
       </c>
@@ -8968,8 +10552,14 @@
       <c r="H72" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I72" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>69</v>
       </c>
@@ -8985,8 +10575,14 @@
       <c r="H73" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I73" t="s">
+        <v>32</v>
+      </c>
+      <c r="J73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>70</v>
       </c>
@@ -9002,8 +10598,14 @@
       <c r="H74" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I74" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>71</v>
       </c>
@@ -9019,8 +10621,14 @@
       <c r="H75" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I75" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>72</v>
       </c>
@@ -9036,8 +10644,14 @@
       <c r="H76" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I76" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>73</v>
       </c>
@@ -9053,8 +10667,14 @@
       <c r="H77" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I77" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>74</v>
       </c>
@@ -9073,8 +10693,14 @@
       <c r="H78" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I78" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>75</v>
       </c>
@@ -9090,8 +10716,14 @@
       <c r="H79" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I79" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>76</v>
       </c>
@@ -9107,8 +10739,14 @@
       <c r="H80" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I80" t="s">
+        <v>32</v>
+      </c>
+      <c r="J80" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>77</v>
       </c>
@@ -9124,8 +10762,14 @@
       <c r="H81" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I81" t="s">
+        <v>32</v>
+      </c>
+      <c r="J81" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>78</v>
       </c>
@@ -9141,8 +10785,14 @@
       <c r="H82" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I82" t="s">
+        <v>32</v>
+      </c>
+      <c r="J82" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>79</v>
       </c>
@@ -9158,8 +10808,14 @@
       <c r="H83" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I83" t="s">
+        <v>32</v>
+      </c>
+      <c r="J83" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>80</v>
       </c>
@@ -9175,8 +10831,14 @@
       <c r="H84" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I84" t="s">
+        <v>32</v>
+      </c>
+      <c r="J84" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>81</v>
       </c>
@@ -9192,8 +10854,14 @@
       <c r="H85" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I85" t="s">
+        <v>32</v>
+      </c>
+      <c r="J85" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>82</v>
       </c>
@@ -9209,8 +10877,14 @@
       <c r="H86" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I86" t="s">
+        <v>32</v>
+      </c>
+      <c r="J86" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>83</v>
       </c>
@@ -9226,8 +10900,14 @@
       <c r="H87" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I87" t="s">
+        <v>32</v>
+      </c>
+      <c r="J87" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>84</v>
       </c>
@@ -9243,8 +10923,14 @@
       <c r="H88" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="I88" t="s">
+        <v>19</v>
+      </c>
+      <c r="J88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>85</v>
       </c>
@@ -9260,8 +10946,14 @@
       <c r="H89" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I89" t="s">
+        <v>19</v>
+      </c>
+      <c r="J89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>86</v>
       </c>
@@ -9277,8 +10969,14 @@
       <c r="H90" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I90" t="s">
+        <v>32</v>
+      </c>
+      <c r="J90" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>87</v>
       </c>
@@ -9297,8 +10995,14 @@
       <c r="H91" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I91" t="s">
+        <v>32</v>
+      </c>
+      <c r="J91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>88</v>
       </c>
@@ -9314,8 +11018,14 @@
       <c r="H92" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>89</v>
       </c>
@@ -9331,8 +11041,14 @@
       <c r="H93" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I93" t="s">
+        <v>32</v>
+      </c>
+      <c r="J93" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>90</v>
       </c>
@@ -9348,8 +11064,14 @@
       <c r="H94" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I94" t="s">
+        <v>32</v>
+      </c>
+      <c r="J94" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>91</v>
       </c>
@@ -9365,8 +11087,14 @@
       <c r="H95" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I95" t="s">
+        <v>32</v>
+      </c>
+      <c r="J95" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>92</v>
       </c>
@@ -9382,8 +11110,14 @@
       <c r="H96" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I96" t="s">
+        <v>32</v>
+      </c>
+      <c r="J96" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>93</v>
       </c>
@@ -9399,8 +11133,14 @@
       <c r="H97" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I97" t="s">
+        <v>32</v>
+      </c>
+      <c r="J97" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>94</v>
       </c>
@@ -9416,8 +11156,14 @@
       <c r="H98" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="I98" t="s">
+        <v>32</v>
+      </c>
+      <c r="J98" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>95</v>
       </c>
@@ -9433,8 +11179,14 @@
       <c r="H99" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I99" t="s">
+        <v>19</v>
+      </c>
+      <c r="J99" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>96</v>
       </c>
@@ -9450,8 +11202,14 @@
       <c r="H100" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I100" t="s">
+        <v>32</v>
+      </c>
+      <c r="J100" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>97</v>
       </c>
@@ -9470,8 +11228,14 @@
       <c r="H101" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I101" t="s">
+        <v>32</v>
+      </c>
+      <c r="J101" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>98</v>
       </c>
@@ -9487,8 +11251,14 @@
       <c r="H102" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I102" t="s">
+        <v>19</v>
+      </c>
+      <c r="J102" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>99</v>
       </c>
@@ -9504,8 +11274,14 @@
       <c r="H103" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I103" t="s">
+        <v>19</v>
+      </c>
+      <c r="J103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>100</v>
       </c>
@@ -9521,8 +11297,14 @@
       <c r="H104" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I104" t="s">
+        <v>32</v>
+      </c>
+      <c r="J104" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>101</v>
       </c>
@@ -9538,8 +11320,14 @@
       <c r="H105" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I105" t="s">
+        <v>19</v>
+      </c>
+      <c r="J105" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>102</v>
       </c>
@@ -9555,8 +11343,14 @@
       <c r="H106" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I106" t="s">
+        <v>32</v>
+      </c>
+      <c r="J106" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>103</v>
       </c>
@@ -9572,8 +11366,14 @@
       <c r="H107" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I107" t="s">
+        <v>32</v>
+      </c>
+      <c r="J107" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>104</v>
       </c>
@@ -9589,8 +11389,14 @@
       <c r="H108" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I108" t="s">
+        <v>32</v>
+      </c>
+      <c r="J108" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>105</v>
       </c>
@@ -9606,8 +11412,14 @@
       <c r="H109" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I109" t="s">
+        <v>32</v>
+      </c>
+      <c r="J109" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>106</v>
       </c>
@@ -9623,8 +11435,14 @@
       <c r="H110" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I110" t="s">
+        <v>19</v>
+      </c>
+      <c r="J110" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>107</v>
       </c>
@@ -9640,8 +11458,14 @@
       <c r="H111" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I111" t="s">
+        <v>32</v>
+      </c>
+      <c r="J111" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>108</v>
       </c>
@@ -9660,8 +11484,14 @@
       <c r="H112" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I112" t="s">
+        <v>32</v>
+      </c>
+      <c r="J112" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>109</v>
       </c>
@@ -9680,8 +11510,14 @@
       <c r="H113" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I113" t="s">
+        <v>32</v>
+      </c>
+      <c r="J113" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>110</v>
       </c>
@@ -9700,8 +11536,14 @@
       <c r="H114" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I114" t="s">
+        <v>19</v>
+      </c>
+      <c r="J114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>111</v>
       </c>
@@ -9720,8 +11562,14 @@
       <c r="H115" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I115" t="s">
+        <v>32</v>
+      </c>
+      <c r="J115" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>112</v>
       </c>
@@ -9737,8 +11585,14 @@
       <c r="H116" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I116" t="s">
+        <v>32</v>
+      </c>
+      <c r="J116" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>113</v>
       </c>
@@ -9754,8 +11608,14 @@
       <c r="H117" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I117" t="s">
+        <v>32</v>
+      </c>
+      <c r="J117" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>114</v>
       </c>
@@ -9771,8 +11631,14 @@
       <c r="H118" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I118" t="s">
+        <v>32</v>
+      </c>
+      <c r="J118" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>115</v>
       </c>
@@ -9788,8 +11654,14 @@
       <c r="H119" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I119" t="s">
+        <v>32</v>
+      </c>
+      <c r="J119" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>116</v>
       </c>
@@ -9805,8 +11677,14 @@
       <c r="H120" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I120" t="s">
+        <v>32</v>
+      </c>
+      <c r="J120" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>117</v>
       </c>
@@ -9822,8 +11700,14 @@
       <c r="H121" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I121" t="s">
+        <v>32</v>
+      </c>
+      <c r="J121" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>118</v>
       </c>
@@ -9839,8 +11723,14 @@
       <c r="H122" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I122" t="s">
+        <v>32</v>
+      </c>
+      <c r="J122" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>119</v>
       </c>
@@ -9856,8 +11746,14 @@
       <c r="H123" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I123" t="s">
+        <v>32</v>
+      </c>
+      <c r="J123" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>120</v>
       </c>
@@ -9873,8 +11769,14 @@
       <c r="H124" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I124" t="s">
+        <v>32</v>
+      </c>
+      <c r="J124" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>121</v>
       </c>
@@ -9890,8 +11792,14 @@
       <c r="H125" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I125" t="s">
+        <v>32</v>
+      </c>
+      <c r="J125" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>122</v>
       </c>
@@ -9907,8 +11815,14 @@
       <c r="H126" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I126" t="s">
+        <v>32</v>
+      </c>
+      <c r="J126" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>123</v>
       </c>
@@ -9924,8 +11838,14 @@
       <c r="H127" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I127" t="s">
+        <v>32</v>
+      </c>
+      <c r="J127" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>124</v>
       </c>
@@ -9941,8 +11861,14 @@
       <c r="H128" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I128" t="s">
+        <v>32</v>
+      </c>
+      <c r="J128" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>125</v>
       </c>
@@ -9958,8 +11884,14 @@
       <c r="H129" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I129" t="s">
+        <v>32</v>
+      </c>
+      <c r="J129" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>126</v>
       </c>
@@ -9975,8 +11907,14 @@
       <c r="H130" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I130" t="s">
+        <v>32</v>
+      </c>
+      <c r="J130" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>127</v>
       </c>
@@ -9992,8 +11930,14 @@
       <c r="H131" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I131" t="s">
+        <v>32</v>
+      </c>
+      <c r="J131" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>128</v>
       </c>
@@ -10012,8 +11956,14 @@
       <c r="H132" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I132" t="s">
+        <v>32</v>
+      </c>
+      <c r="J132" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>129</v>
       </c>
@@ -10032,8 +11982,14 @@
       <c r="H133" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I133" t="s">
+        <v>32</v>
+      </c>
+      <c r="J133" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>130</v>
       </c>
@@ -10052,8 +12008,14 @@
       <c r="H134" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I134" t="s">
+        <v>32</v>
+      </c>
+      <c r="J134" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>131</v>
       </c>
@@ -10072,8 +12034,14 @@
       <c r="H135" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I135" t="s">
+        <v>32</v>
+      </c>
+      <c r="J135" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>132</v>
       </c>
@@ -10089,8 +12057,14 @@
       <c r="H136" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I136" t="s">
+        <v>32</v>
+      </c>
+      <c r="J136" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>133</v>
       </c>
@@ -10106,8 +12080,14 @@
       <c r="H137" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I137" t="s">
+        <v>32</v>
+      </c>
+      <c r="J137" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>134</v>
       </c>
@@ -10123,8 +12103,14 @@
       <c r="H138" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I138" t="s">
+        <v>32</v>
+      </c>
+      <c r="J138" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>135</v>
       </c>
@@ -10143,8 +12129,14 @@
       <c r="H139" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I139" t="s">
+        <v>32</v>
+      </c>
+      <c r="J139" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>136</v>
       </c>
@@ -10160,8 +12152,14 @@
       <c r="H140" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I140" t="s">
+        <v>32</v>
+      </c>
+      <c r="J140" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>137</v>
       </c>
@@ -10177,8 +12175,14 @@
       <c r="H141" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I141" t="s">
+        <v>32</v>
+      </c>
+      <c r="J141" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>138</v>
       </c>
@@ -10194,8 +12198,14 @@
       <c r="H142" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I142" t="s">
+        <v>32</v>
+      </c>
+      <c r="J142" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>139</v>
       </c>
@@ -10211,8 +12221,14 @@
       <c r="H143" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I143" t="s">
+        <v>32</v>
+      </c>
+      <c r="J143" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>140</v>
       </c>
@@ -10228,8 +12244,14 @@
       <c r="H144" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I144" t="s">
+        <v>19</v>
+      </c>
+      <c r="J144" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>141</v>
       </c>
@@ -10245,8 +12267,14 @@
       <c r="H145" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I145" t="s">
+        <v>32</v>
+      </c>
+      <c r="J145" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>142</v>
       </c>
@@ -10265,8 +12293,14 @@
       <c r="H146" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I146" t="s">
+        <v>32</v>
+      </c>
+      <c r="J146" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>143</v>
       </c>
@@ -10285,8 +12319,14 @@
       <c r="H147" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I147" t="s">
+        <v>32</v>
+      </c>
+      <c r="J147" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>144</v>
       </c>
@@ -10305,8 +12345,14 @@
       <c r="H148" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I148" t="s">
+        <v>19</v>
+      </c>
+      <c r="J148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>145</v>
       </c>
@@ -10325,8 +12371,14 @@
       <c r="H149" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I149" t="s">
+        <v>32</v>
+      </c>
+      <c r="J149" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>146</v>
       </c>
@@ -10342,8 +12394,14 @@
       <c r="H150" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I150" t="s">
+        <v>32</v>
+      </c>
+      <c r="J150" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>147</v>
       </c>
@@ -10359,8 +12417,14 @@
       <c r="H151" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I151" t="s">
+        <v>19</v>
+      </c>
+      <c r="J151" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>148</v>
       </c>
@@ -10379,8 +12443,14 @@
       <c r="H152" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I152" t="s">
+        <v>32</v>
+      </c>
+      <c r="J152" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>149</v>
       </c>
@@ -10396,8 +12466,14 @@
       <c r="H153" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I153" t="s">
+        <v>19</v>
+      </c>
+      <c r="J153" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>150</v>
       </c>
@@ -10413,8 +12489,14 @@
       <c r="H154" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I154" t="s">
+        <v>32</v>
+      </c>
+      <c r="J154" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>151</v>
       </c>
@@ -10430,8 +12512,14 @@
       <c r="H155" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" ht="75" x14ac:dyDescent="0.4">
+      <c r="I155" t="s">
+        <v>19</v>
+      </c>
+      <c r="J155" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>152</v>
       </c>
@@ -10447,8 +12535,14 @@
       <c r="H156" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I156" t="s">
+        <v>32</v>
+      </c>
+      <c r="J156" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>153</v>
       </c>
@@ -10467,8 +12561,14 @@
       <c r="H157" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I157" t="s">
+        <v>32</v>
+      </c>
+      <c r="J157" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>154</v>
       </c>
@@ -10487,8 +12587,14 @@
       <c r="H158" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I158" t="s">
+        <v>32</v>
+      </c>
+      <c r="J158" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>155</v>
       </c>
@@ -10507,8 +12613,14 @@
       <c r="H159" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I159" t="s">
+        <v>32</v>
+      </c>
+      <c r="J159" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>156</v>
       </c>
@@ -10527,8 +12639,14 @@
       <c r="H160" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I160" t="s">
+        <v>32</v>
+      </c>
+      <c r="J160" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>157</v>
       </c>
@@ -10544,13 +12662,19 @@
       <c r="H161" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I161" t="s">
+        <v>19</v>
+      </c>
+      <c r="J161" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B162" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>158</v>
       </c>
@@ -10569,8 +12693,14 @@
       <c r="H163" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I163" t="s">
+        <v>32</v>
+      </c>
+      <c r="J163" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>159</v>
       </c>
@@ -10589,8 +12719,14 @@
       <c r="H164" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I164" t="s">
+        <v>32</v>
+      </c>
+      <c r="J164" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>160</v>
       </c>
@@ -10609,8 +12745,14 @@
       <c r="H165" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I165" t="s">
+        <v>32</v>
+      </c>
+      <c r="J165" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>161</v>
       </c>
@@ -10629,8 +12771,14 @@
       <c r="H166" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I166" t="s">
+        <v>32</v>
+      </c>
+      <c r="J166" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>162</v>
       </c>
@@ -10649,8 +12797,14 @@
       <c r="H167" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I167" t="s">
+        <v>32</v>
+      </c>
+      <c r="J167" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>163</v>
       </c>
@@ -10669,8 +12823,14 @@
       <c r="H168" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I168" t="s">
+        <v>32</v>
+      </c>
+      <c r="J168" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>164</v>
       </c>
@@ -10689,8 +12849,14 @@
       <c r="H169" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J169" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>165</v>
       </c>
@@ -10706,8 +12872,14 @@
       <c r="H170" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I170" t="s">
+        <v>32</v>
+      </c>
+      <c r="J170" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>166</v>
       </c>
@@ -10726,8 +12898,14 @@
       <c r="H171" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I171" t="s">
+        <v>32</v>
+      </c>
+      <c r="J171" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>167</v>
       </c>
@@ -10741,6 +12919,538 @@
         <v>85</v>
       </c>
       <c r="H172" t="s">
+        <v>19</v>
+      </c>
+      <c r="I172" t="s">
+        <v>19</v>
+      </c>
+      <c r="J172" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B173" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174">
+        <v>168</v>
+      </c>
+      <c r="C174" t="s">
+        <v>341</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F174" t="s">
+        <v>342</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H174" t="s">
+        <v>32</v>
+      </c>
+      <c r="I174" t="s">
+        <v>32</v>
+      </c>
+      <c r="J174" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175">
+        <v>169</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F175" t="s">
+        <v>344</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H175" t="s">
+        <v>32</v>
+      </c>
+      <c r="I175" t="s">
+        <v>32</v>
+      </c>
+      <c r="J175" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176">
+        <v>170</v>
+      </c>
+      <c r="D176" t="s">
+        <v>139</v>
+      </c>
+      <c r="E176" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H176" t="s">
+        <v>32</v>
+      </c>
+      <c r="I176" t="s">
+        <v>32</v>
+      </c>
+      <c r="J176" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177">
+        <v>171</v>
+      </c>
+      <c r="D177" t="s">
+        <v>301</v>
+      </c>
+      <c r="F177" t="s">
+        <v>111</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H177" t="s">
+        <v>32</v>
+      </c>
+      <c r="I177" t="s">
+        <v>32</v>
+      </c>
+      <c r="J177" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178">
+        <v>172</v>
+      </c>
+      <c r="D178" t="s">
+        <v>334</v>
+      </c>
+      <c r="F178" t="s">
+        <v>74</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H178" t="s">
+        <v>32</v>
+      </c>
+      <c r="I178" t="s">
+        <v>32</v>
+      </c>
+      <c r="J178" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179">
+        <v>173</v>
+      </c>
+      <c r="D179" t="s">
+        <v>335</v>
+      </c>
+      <c r="F179" t="s">
+        <v>74</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H179" t="s">
+        <v>32</v>
+      </c>
+      <c r="I179" t="s">
+        <v>32</v>
+      </c>
+      <c r="J179" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180">
+        <v>174</v>
+      </c>
+      <c r="D180" t="s">
+        <v>332</v>
+      </c>
+      <c r="E180" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" t="s">
+        <v>274</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H180" t="s">
+        <v>32</v>
+      </c>
+      <c r="I180" t="s">
+        <v>32</v>
+      </c>
+      <c r="J180" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181">
+        <v>175</v>
+      </c>
+      <c r="D181" t="s">
+        <v>332</v>
+      </c>
+      <c r="E181" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" t="s">
+        <v>276</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H181" t="s">
+        <v>32</v>
+      </c>
+      <c r="I181" t="s">
+        <v>32</v>
+      </c>
+      <c r="J181" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182">
+        <v>176</v>
+      </c>
+      <c r="D182" t="s">
+        <v>304</v>
+      </c>
+      <c r="F182" t="s">
+        <v>337</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H182" t="s">
+        <v>32</v>
+      </c>
+      <c r="I182" t="s">
+        <v>32</v>
+      </c>
+      <c r="J182" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183">
+        <v>177</v>
+      </c>
+      <c r="D183" t="s">
+        <v>304</v>
+      </c>
+      <c r="F183" t="s">
+        <v>339</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H183" t="s">
+        <v>32</v>
+      </c>
+      <c r="I183" t="s">
+        <v>32</v>
+      </c>
+      <c r="J183" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184">
+        <v>178</v>
+      </c>
+      <c r="D184" t="s">
+        <v>304</v>
+      </c>
+      <c r="E184" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H184" t="s">
+        <v>32</v>
+      </c>
+      <c r="I184" t="s">
+        <v>32</v>
+      </c>
+      <c r="J184" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B185" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186">
+        <v>179</v>
+      </c>
+      <c r="C186" t="s">
+        <v>188</v>
+      </c>
+      <c r="D186" t="s">
+        <v>301</v>
+      </c>
+      <c r="F186" t="s">
+        <v>111</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H186" t="s">
+        <v>32</v>
+      </c>
+      <c r="I186" t="s">
+        <v>32</v>
+      </c>
+      <c r="J186" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187">
+        <v>180</v>
+      </c>
+      <c r="D187" t="s">
+        <v>190</v>
+      </c>
+      <c r="F187" t="s">
+        <v>193</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H187" t="s">
+        <v>32</v>
+      </c>
+      <c r="I187" t="s">
+        <v>32</v>
+      </c>
+      <c r="J187" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188">
+        <v>181</v>
+      </c>
+      <c r="D188" t="s">
+        <v>20</v>
+      </c>
+      <c r="F188" t="s">
+        <v>21</v>
+      </c>
+      <c r="G188" t="s">
+        <v>22</v>
+      </c>
+      <c r="H188" t="s">
+        <v>19</v>
+      </c>
+      <c r="I188" t="s">
+        <v>19</v>
+      </c>
+      <c r="J188" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189">
+        <v>182</v>
+      </c>
+      <c r="D189" t="s">
+        <v>304</v>
+      </c>
+      <c r="F189" t="s">
+        <v>308</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H189" t="s">
+        <v>32</v>
+      </c>
+      <c r="I189" t="s">
+        <v>32</v>
+      </c>
+      <c r="J189" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190">
+        <v>183</v>
+      </c>
+      <c r="D190" t="s">
+        <v>304</v>
+      </c>
+      <c r="E190" t="s">
+        <v>13</v>
+      </c>
+      <c r="F190" t="s">
+        <v>309</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H190" t="s">
+        <v>32</v>
+      </c>
+      <c r="I190" t="s">
+        <v>32</v>
+      </c>
+      <c r="J190" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191">
+        <v>184</v>
+      </c>
+      <c r="D191" t="s">
+        <v>304</v>
+      </c>
+      <c r="E191" t="s">
+        <v>13</v>
+      </c>
+      <c r="F191" t="s">
+        <v>310</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H191" t="s">
+        <v>32</v>
+      </c>
+      <c r="I191" t="s">
+        <v>32</v>
+      </c>
+      <c r="J191" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192">
+        <v>185</v>
+      </c>
+      <c r="D192" t="s">
+        <v>304</v>
+      </c>
+      <c r="E192" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" t="s">
+        <v>307</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H192" t="s">
+        <v>32</v>
+      </c>
+      <c r="I192" t="s">
+        <v>32</v>
+      </c>
+      <c r="J192" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193">
+        <v>186</v>
+      </c>
+      <c r="D193" t="s">
+        <v>304</v>
+      </c>
+      <c r="E193" t="s">
+        <v>13</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H193" t="s">
+        <v>32</v>
+      </c>
+      <c r="I193" t="s">
+        <v>32</v>
+      </c>
+      <c r="J193" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194">
+        <v>187</v>
+      </c>
+      <c r="D194" t="s">
+        <v>304</v>
+      </c>
+      <c r="E194" t="s">
+        <v>13</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H194" t="s">
+        <v>32</v>
+      </c>
+      <c r="I194" t="s">
+        <v>32</v>
+      </c>
+      <c r="J194" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195">
+        <v>188</v>
+      </c>
+      <c r="D195" t="s">
+        <v>83</v>
+      </c>
+      <c r="F195" t="s">
+        <v>84</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H195" t="s">
+        <v>19</v>
+      </c>
+      <c r="I195" t="s">
+        <v>19</v>
+      </c>
+      <c r="J195" t="s">
         <v>19</v>
       </c>
     </row>
